--- a/Docs/Arbeitsjournal.xlsx
+++ b/Docs/Arbeitsjournal.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Datum</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Projekteinführung</t>
   </si>
   <si>
-    <t>Ich habe eine TODOliste mit allen Aufgaben erstellt und mein Spiel genauer definiert.</t>
-  </si>
-  <si>
     <t>Thema: SKAP - Single Player Survival FPS Game</t>
   </si>
   <si>
@@ -87,9 +84,6 @@
     <t>Ich habe ein Backlog auf Github erstellt.</t>
   </si>
   <si>
-    <t>Ich habe ein Unity-Projekt erstellt und angefangen, Sachen vorzubereiten, die ich für das Projekt benötigen würde. (verschiedene Assets: Soundeffekte, Kannibalenmodell, Ebermodell usw.)</t>
-  </si>
-  <si>
     <t>Todos erstellen, Spiele definieren</t>
   </si>
   <si>
@@ -103,6 +97,24 @@
   </si>
   <si>
     <t>Ich habe die Einstellung von CI / CD für mein Unity-Projekt fertig gemacht und es funktioniert wie es sollte.</t>
+  </si>
+  <si>
+    <t>Ich habe ein Unity-Projekt erstellt und angefangen, Sachen vorzubereiten, die ich für das Projekt benötigen würde. (verschiedene Assets: Soundeffekte, Menschmodell, Tiermodell usw.)</t>
+  </si>
+  <si>
+    <t>Nutzbare Assets gefunden</t>
+  </si>
+  <si>
+    <t>Ich habe eine TODO-Liste mit allen Aufgaben erstellt und mein Spiel genauer definiert.</t>
+  </si>
+  <si>
+    <t>Ich habe mehrere Websites durchsucht (z.B. Unity-Assetstore), um Assets zu finden, die ich in meinem Projekt verwenden kann. Ich habe einige Zeit gebraucht, um gut aussehende Assets zu finden, die kostenlos waren. Nach einiger Zeit fand ich einige nützliche Assets (z.B. Texturen, Modelle, Soundeffekte...).</t>
+  </si>
+  <si>
+    <t>Heute habe ich mit der Erstellung des Terrains begonnen. (Kartentexturen, Beleuchtung ...)</t>
+  </si>
+  <si>
+    <t>Beginnen mit dem Projekt (Level-Map erstellen)</t>
   </si>
 </sst>
 </file>
@@ -499,7 +511,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -509,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:D72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
@@ -522,11 +534,11 @@
   <sheetData>
     <row r="3" spans="2:4">
       <c r="B3" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -548,7 +560,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="28.8">
@@ -556,10 +568,10 @@
         <v>44147</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="72">
@@ -567,10 +579,10 @@
         <v>44147</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="2:4">
@@ -578,10 +590,10 @@
         <v>44147</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:4">
@@ -592,7 +604,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="2:4">
@@ -600,10 +612,10 @@
         <v>44147</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="28.8">
@@ -611,10 +623,10 @@
         <v>44154</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="57.6">
@@ -622,10 +634,10 @@
         <v>44154</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="57.6">
@@ -633,10 +645,10 @@
         <v>44154</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="28.8">
@@ -644,21 +656,33 @@
         <v>44155</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D15" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="72">
+      <c r="B16" s="6">
+        <v>44161</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="B16" s="5"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="5"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="28.8">
+      <c r="B17" s="6">
+        <v>44161</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="5"/>
@@ -877,6 +901,67 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Student_Groups xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Student_Groups>
+    <DefaultSectionNames xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
+    <AppVersion xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
+    <NotebookType xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
+    <Students xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Students>
+    <Math_Settings xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
+    <Is_Collaboration_Space_Locked xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
+    <FolderType xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
+    <Owner xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <Has_Teacher_Only_SectionGroup xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
+    <TeamsChannelId xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
+    <Invited_Teachers xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
+    <Invited_Students xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
+    <IsNotebookLocked xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
+    <Teachers xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Teachers>
+    <Templates xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
+    <CultureName xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
+    <Distribution_Groups xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
+    <Self_Registration_Enabled xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
+    <Teams_Channel_Section_Location xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
+    <LMS_Mappings xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010098197570C755F94B8AC709C38ECA9F7D" ma:contentTypeVersion="27" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="1336653330e0ec0c2171f85d41fc2f1c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="651f9e85-4ce1-41d6-bcdc-5ba90975e784" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="279c9cfdf95752692f45236e19ff6618" ns2:_="">
     <xsd:import namespace="651f9e85-4ce1-41d6-bcdc-5ba90975e784"/>
@@ -1228,68 +1313,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EC11DDA-F19A-465A-9697-F9ED8263365A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="651f9e85-4ce1-41d6-bcdc-5ba90975e784"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Student_Groups xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Student_Groups>
-    <DefaultSectionNames xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
-    <AppVersion xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
-    <NotebookType xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
-    <Students xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Students>
-    <Math_Settings xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
-    <Is_Collaboration_Space_Locked xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
-    <FolderType xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
-    <Owner xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <Has_Teacher_Only_SectionGroup xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
-    <TeamsChannelId xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
-    <Invited_Teachers xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
-    <Invited_Students xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
-    <IsNotebookLocked xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
-    <Teachers xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Teachers>
-    <Templates xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
-    <CultureName xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
-    <Distribution_Groups xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
-    <Self_Registration_Enabled xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
-    <Teams_Channel_Section_Location xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
-    <LMS_Mappings xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B55A81E-D881-492D-9541-3C3606AE4B12}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D99BBA4-BF7E-43CB-B59A-26A20D9E2037}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1305,22 +1347,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B55A81E-D881-492D-9541-3C3606AE4B12}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EC11DDA-F19A-465A-9697-F9ED8263365A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="651f9e85-4ce1-41d6-bcdc-5ba90975e784"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Docs/Arbeitsjournal.xlsx
+++ b/Docs/Arbeitsjournal.xlsx
@@ -521,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:D72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>

--- a/Docs/Arbeitsjournal.xlsx
+++ b/Docs/Arbeitsjournal.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Datum</t>
   </si>
@@ -115,6 +115,18 @@
   </si>
   <si>
     <t>Beginnen mit dem Projekt (Level-Map erstellen)</t>
+  </si>
+  <si>
+    <t>Level Map hinzugefügt, Beleuchtung fertig</t>
+  </si>
+  <si>
+    <t>Ich habe den Gameplay-Bereich aus dem Prefabs-Ordner in Assets importiert. Die Beleuchtung war nicht schwierig, aber ich musste suchen, wie es genau funktioniert, da ich zum ersten Mal mit dem gerichteten Licht (Lichteffekte) arbeitete.</t>
+  </si>
+  <si>
+    <t>Beginnen mit dem Spieler (Player)</t>
+  </si>
+  <si>
+    <t>Ich habe ein GameObject erstellt ("Player" umbenannt). Dann habe ich eine "Character Component" hinzugefügt (und die Values dort angepasst). Ich habe auch einige Dinge erstellt, wie die Weapon_Camera (zeigt Hände mit Waffen). Im Moment arbeite ich an den Modellen und Animationen (assets/models/firstperson). Es wird wahrscheinlich etwas mehr Zeit dauern, da ich noch nie mit solchen Modellen gearbeitet habe. (Die Spiele, die ich in der Vergangenheit gemacht habe, waren 2D)</t>
   </si>
 </sst>
 </file>
@@ -200,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -238,6 +250,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -511,7 +526,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -521,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:D72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
@@ -684,15 +699,27 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="5"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="5"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+    <row r="18" spans="2:4" ht="57.6">
+      <c r="B18" s="6">
+        <v>44168</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="115.2">
+      <c r="B19" s="6">
+        <v>44168</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="5"/>
@@ -901,67 +928,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Student_Groups xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Student_Groups>
-    <DefaultSectionNames xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
-    <AppVersion xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
-    <NotebookType xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
-    <Students xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Students>
-    <Math_Settings xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
-    <Is_Collaboration_Space_Locked xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
-    <FolderType xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
-    <Owner xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <Has_Teacher_Only_SectionGroup xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
-    <TeamsChannelId xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
-    <Invited_Teachers xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
-    <Invited_Students xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
-    <IsNotebookLocked xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
-    <Teachers xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Teachers>
-    <Templates xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
-    <CultureName xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
-    <Distribution_Groups xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
-    <Self_Registration_Enabled xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
-    <Teams_Channel_Section_Location xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
-    <LMS_Mappings xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010098197570C755F94B8AC709C38ECA9F7D" ma:contentTypeVersion="27" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="1336653330e0ec0c2171f85d41fc2f1c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="651f9e85-4ce1-41d6-bcdc-5ba90975e784" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="279c9cfdf95752692f45236e19ff6618" ns2:_="">
     <xsd:import namespace="651f9e85-4ce1-41d6-bcdc-5ba90975e784"/>
@@ -1313,25 +1279,68 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EC11DDA-F19A-465A-9697-F9ED8263365A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="651f9e85-4ce1-41d6-bcdc-5ba90975e784"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B55A81E-D881-492D-9541-3C3606AE4B12}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Student_Groups xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Student_Groups>
+    <DefaultSectionNames xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
+    <AppVersion xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
+    <NotebookType xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
+    <Students xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Students>
+    <Math_Settings xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
+    <Is_Collaboration_Space_Locked xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
+    <FolderType xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
+    <Owner xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <Has_Teacher_Only_SectionGroup xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
+    <TeamsChannelId xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
+    <Invited_Teachers xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
+    <Invited_Students xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
+    <IsNotebookLocked xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
+    <Teachers xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Teachers>
+    <Templates xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
+    <CultureName xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
+    <Distribution_Groups xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
+    <Self_Registration_Enabled xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
+    <Teams_Channel_Section_Location xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
+    <LMS_Mappings xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D99BBA4-BF7E-43CB-B59A-26A20D9E2037}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1347,4 +1356,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B55A81E-D881-492D-9541-3C3606AE4B12}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EC11DDA-F19A-465A-9697-F9ED8263365A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="651f9e85-4ce1-41d6-bcdc-5ba90975e784"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Docs/Arbeitsjournal.xlsx
+++ b/Docs/Arbeitsjournal.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Datum</t>
   </si>
@@ -126,7 +126,31 @@
     <t>Beginnen mit dem Spieler (Player)</t>
   </si>
   <si>
-    <t>Ich habe ein GameObject erstellt ("Player" umbenannt). Dann habe ich eine "Character Component" hinzugefügt (und die Values dort angepasst). Ich habe auch einige Dinge erstellt, wie die Weapon_Camera (zeigt Hände mit Waffen). Im Moment arbeite ich an den Modellen und Animationen (assets/models/firstperson). Es wird wahrscheinlich etwas mehr Zeit dauern, da ich noch nie mit solchen Modellen gearbeitet habe. (Die Spiele, die ich in der Vergangenheit gemacht habe, waren 2D)</t>
+    <t>Ich habe ein GameObject erstellt ("Player" umbenannt). Dann habe ich eine "Character Component" hinzugefügt (und die Values dort angepasst). Ich habe auch einige Dinge erstellt, wie die Person_Camera und Person_weapons (zeigt Hände mit Waffen). Im Moment arbeite ich an den Modellen und Animationen (assets/models/firstperson). Es wird wahrscheinlich etwas mehr Zeit dauern, da ich noch nie mit solchen Modellen gearbeitet habe. (Die Spiele, die ich in der Vergangenheit gemacht habe, waren 2D)</t>
+  </si>
+  <si>
+    <t>Fertig mit dem Spieler Modellen</t>
+  </si>
+  <si>
+    <t>Beginnen mit der Spielerbewegung</t>
+  </si>
+  <si>
+    <t>Ich habe die Spielermodelle (Waffen und Hände) fertig eingerichtet. Ich habe die Positionen angepasst und die Texturen hinzugefügt.</t>
+  </si>
+  <si>
+    <t>Spielerbewegung fertig</t>
+  </si>
+  <si>
+    <t>Ich fing an, die Spielerbewegung zu codieren. Es gab keine grossen Probleme, weil ich es zuvor getan habe. Ich habe die Spielerbewegung (WASD-Tasten) und die Mausbewegung (nach oben, unten, links, rechts) gemacht.</t>
+  </si>
+  <si>
+    <t>Ich habe die Spielerbewegung fertiggemacht. Ich habe die Sprint-, Jump- und Crouchfunktionen zu der Bewegung hinzugefügt.</t>
+  </si>
+  <si>
+    <t>Animieren von Händen und Waffen</t>
+  </si>
+  <si>
+    <t>Ich habe die Animationen zu den Modellen hinzugefügt und Animationsschritte (Weapon_Draw, Weapon_Idle, Weapon_Aim, Weapon_Attack) im "Animator" erstellt. Animationen waren etwas Neues für mich, daher war es wirklich interessant, online darüber zu lesen und zu sehen, wie sie funktionieren.</t>
   </si>
 </sst>
 </file>
@@ -245,14 +269,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -526,7 +550,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -536,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:D72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
@@ -548,10 +572,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="13"/>
+      <c r="C3" s="14"/>
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
@@ -717,29 +741,53 @@
       <c r="C19" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="5"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="5"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="5"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="5"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
+    <row r="20" spans="2:4" ht="28.8">
+      <c r="B20" s="6">
+        <v>44175</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="57.6">
+      <c r="B21" s="6">
+        <v>44175</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="28.8">
+      <c r="B22" s="6">
+        <v>44178</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="72">
+      <c r="B23" s="6">
+        <v>44181</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="5"/>
@@ -928,6 +976,67 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Student_Groups xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Student_Groups>
+    <DefaultSectionNames xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
+    <AppVersion xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
+    <NotebookType xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
+    <Students xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Students>
+    <Math_Settings xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
+    <Is_Collaboration_Space_Locked xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
+    <FolderType xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
+    <Owner xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <Has_Teacher_Only_SectionGroup xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
+    <TeamsChannelId xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
+    <Invited_Teachers xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
+    <Invited_Students xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
+    <IsNotebookLocked xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
+    <Teachers xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Teachers>
+    <Templates xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
+    <CultureName xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
+    <Distribution_Groups xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
+    <Self_Registration_Enabled xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
+    <Teams_Channel_Section_Location xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
+    <LMS_Mappings xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010098197570C755F94B8AC709C38ECA9F7D" ma:contentTypeVersion="27" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="1336653330e0ec0c2171f85d41fc2f1c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="651f9e85-4ce1-41d6-bcdc-5ba90975e784" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="279c9cfdf95752692f45236e19ff6618" ns2:_="">
     <xsd:import namespace="651f9e85-4ce1-41d6-bcdc-5ba90975e784"/>
@@ -1279,68 +1388,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EC11DDA-F19A-465A-9697-F9ED8263365A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="651f9e85-4ce1-41d6-bcdc-5ba90975e784"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Student_Groups xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Student_Groups>
-    <DefaultSectionNames xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
-    <AppVersion xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
-    <NotebookType xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
-    <Students xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Students>
-    <Math_Settings xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
-    <Is_Collaboration_Space_Locked xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
-    <FolderType xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
-    <Owner xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <Has_Teacher_Only_SectionGroup xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
-    <TeamsChannelId xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
-    <Invited_Teachers xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
-    <Invited_Students xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
-    <IsNotebookLocked xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
-    <Teachers xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Teachers>
-    <Templates xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
-    <CultureName xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
-    <Distribution_Groups xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
-    <Self_Registration_Enabled xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
-    <Teams_Channel_Section_Location xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
-    <LMS_Mappings xmlns="651f9e85-4ce1-41d6-bcdc-5ba90975e784" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B55A81E-D881-492D-9541-3C3606AE4B12}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D99BBA4-BF7E-43CB-B59A-26A20D9E2037}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1356,22 +1422,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B55A81E-D881-492D-9541-3C3606AE4B12}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EC11DDA-F19A-465A-9697-F9ED8263365A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="651f9e85-4ce1-41d6-bcdc-5ba90975e784"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Docs/Arbeitsjournal.xlsx
+++ b/Docs/Arbeitsjournal.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>Datum</t>
   </si>
@@ -151,13 +151,232 @@
   </si>
   <si>
     <t>Ich habe die Animationen zu den Modellen hinzugefügt und Animationsschritte (Weapon_Draw, Weapon_Idle, Weapon_Aim, Weapon_Attack) im "Animator" erstellt. Animationen waren etwas Neues für mich, daher war es wirklich interessant, online darüber zu lesen und zu sehen, wie sie funktionieren.</t>
+  </si>
+  <si>
+    <t>Füge die Schritte des Spielers hinzu</t>
+  </si>
+  <si>
+    <t>Waffenhandhabungsfehler</t>
+  </si>
+  <si>
+    <t>Ich habe die Schritte des Players hinzugefügt. Ich habe zuerst mein PlayerFootsteps-Skript erstellt und diese Funktionen dann im PlayerAbilities-Skript hinzugefügt. Es gibt ein minVolume und ein maxVolume, denn wenn du rennst, bist du lauter und wenn du dich hockst, bist du leiser.</t>
+  </si>
+  <si>
+    <t>Ich habe heute am Waffenhandler gearbeitet. Nachdem ich alles beendet und festgeschrieben hatte, wurde ein Fehler in meinem CI-Workflow angezeigt. Ich habe versucht, meine Schritte zurückzuverfolgen, um festzustellen, welcher Teil von dem, was ich hinzugefügt habe, falsch ist, aber ich konnte heute keine Lösung finden.</t>
+  </si>
+  <si>
+    <t>Waffenhandhabungsfehler - Player-Prefab löschen</t>
+  </si>
+  <si>
+    <t>"added weapon-handler" und "deleted player prefab" commits gepushed</t>
+  </si>
+  <si>
+    <t>Ich hatte einige Probleme mit dem Branch, also habe ich einen neuen erstellt. Deshalb ist der Push am 27./28. Und nicht am 23./24.</t>
+  </si>
+  <si>
+    <t>Waffenmanager hinzugefügt</t>
+  </si>
+  <si>
+    <t>Ich habe ein WeaponManager-Skript erstellt, in dem Sie mit den Zifferntasten zwischen den verschiedenen Waffen wechseln können. Es war ziemlich einfach. Keine Schwierigkeiten.</t>
+  </si>
+  <si>
+    <t>Spielerangriff hinzugefügt</t>
+  </si>
+  <si>
+    <t>Ich habe ein PlayerAttack-Skript erstellt, in dem ich die Grundlagen für die Schiessen-Funktionen geschaffen habe, die ich später hinzufügen werde. Im Moment werden nur die Animationen abgespielt, wenn Sie mit der linken Maustaste (LMB) klicken.</t>
+  </si>
+  <si>
+    <t>Waffenanimationen aktualisiert</t>
+  </si>
+  <si>
+    <t>Ich habe die Waffenanimationen aktualisiert. Sie sollten nicht warten, bis die Animation beendet ist, und dann zur Angriffsanimation gehen. Die Idle-Animation sollte anhalten und zur Angriffsanimation wechseln, sobald Sie mit der LMB (Linke Maustaste) klicken. Ich habe die Exit-Zeit deaktiviert und eine neue TransitionDuration festgelegt, je nachdem, wie schnell der Übergang erfolgen soll.</t>
+  </si>
+  <si>
+    <t>Crosshair mit Animationen hinzugefügt</t>
+  </si>
+  <si>
+    <t>Ich habe ein Crosshair erstellt, indem ich eine Canvas mit einem Bild und einem Sprite-Bild des Crosshairs hinzugefügt habe. Ich habe auch Animationen hinzugefügt, wenn Sie zoomen oder mit einer Waffe zielen. Ich fühle mich bei Animationen jetzt viel besser als zuvor. Am Anfang habe ich zum ersten Mal mit Animationen gearbeitet, daher war ich mir nicht sicher, wie es genau funktioniert.</t>
+  </si>
+  <si>
+    <t>Zoomfunktion hinzugefügt</t>
+  </si>
+  <si>
+    <t>Ich habe das Crosshair und die Zoomfunktion zum PlayerAttack-Skript hinzugefügt. Wenn Sie nun auf die RMB (rechte Maustaste) klicken und diese gedrückt halten, können Sie mit Ihren Waffen zoomen / zielen.</t>
+  </si>
+  <si>
+    <t>Munition Prefabs erstellt</t>
+  </si>
+  <si>
+    <t>Ich habe einen Ammo-Prefabs-Ordner für die Arrow- und Spear-Prefabs erstellt. Ich werde diese später verwenden, wenn ich mit dem Arrow- und Spearskript beginne.</t>
+  </si>
+  <si>
+    <t>Weapon_Arrow_Spear Skript erstellt</t>
+  </si>
+  <si>
+    <t>Da Bogen und Speer anders funktionieren als die anderen Waffen, habe ich ein WeaponArrowSpear-Skript erstellt, in dem ich die von mir erstellten Prefabs verwende. Ich habe auch die ShootArrowOrSpear-Funktion erstellt, bei der ich eine Kopie des Pfeils oder des Speer-Fertighauses erstelle und in Richtung von Crosshair starte.</t>
+  </si>
+  <si>
+    <t>Menschlichen Feind hinzufügen</t>
+  </si>
+  <si>
+    <t>Ich habe heute angefangen, an den Feinden zu arbeiten. Ich habe mit dem menschlichen Feind angefangen. Ich begann mit den Animationen, indem ich einen Animations-Controller erstellte und nur auf spätere Dingen vorbereitete (Skripte usw.).</t>
+  </si>
+  <si>
+    <t>Tierfeind hinzugefügt</t>
+  </si>
+  <si>
+    <t>Genau wie beim menschlichen Feind, nur um die Dinge vorzubereiten.</t>
+  </si>
+  <si>
+    <t>EnemyAnimation-Skipt erstellen</t>
+  </si>
+  <si>
+    <t>Release Alpha_1.0</t>
+  </si>
+  <si>
+    <t>Eine Alpha_1.0 Release erstellt. (GitHub -&gt; Releases)</t>
+  </si>
+  <si>
+    <t>Heute habe ich das EnemyController-Skript erstellt. Wo ich das Patrol, Chase, Attack-System gemacht habe. Die Feinde werden "patrollieren" und um das Spiel herumgehen. Wenn wir sie erschiessen oder wenn wir ihnen nahe sind, werden sie uns verfolgen.</t>
+  </si>
+  <si>
+    <t>EnemyController erstellt</t>
+  </si>
+  <si>
+    <t>Release Alpha_1.1</t>
+  </si>
+  <si>
+    <t>Eine Alpha_1.1 Release erstellt. (GitHub -&gt; Releases)</t>
+  </si>
+  <si>
+    <t>Health Skript hinzufügen</t>
+  </si>
+  <si>
+    <t>Ich habe das Health-Skript erstellt. Nachdem der menschliche Feind getötet wurde, wird dieses Objekt deaktiviert. Wenn der Spieler stirbt, wird das Spiel neu gestartet. Der Grund, warum der Tod des menschlichen Feindes nicht so gut aussieht wie der des Tieres, liegt darin, dass ich keine Todesanimation für den menschlichen Feind in meinem Assets habe.</t>
+  </si>
+  <si>
+    <t>Zuerst habe ich die UI-Objekte erstellt und dann die Spielerstatistiken in den Code eingefügt. Ich habe das PlayerStats-Skript erstellt. Ich habe auch einige Funktionen aktualisiert.</t>
+  </si>
+  <si>
+    <t>Stamina und Health UI erstellt</t>
+  </si>
+  <si>
+    <t>EnemyManager Skript hinzugefügt</t>
+  </si>
+  <si>
+    <t>Ich habe das EnemyManager-Skript erstellt. Dieses Skript stellt sicher, dass ein weiterer Feind erzeugt wird, nachdem wir einen getötet haben, damit wir weiterhin Feinde auf dem Spielfeld haben können. Ich habe auch ein paar GameObjects erstellt. (z.B. "SP_1") Diese Objekte sind die EnemySpawnPoints.</t>
+  </si>
+  <si>
+    <t>Die Position der Spawnpunkte wurde geändert</t>
+  </si>
+  <si>
+    <t>Ich habe die Position der Spawn-Punkte geändert, damit die Feinde näher am Spieler sind.</t>
+  </si>
+  <si>
+    <t>Waffen Soundeffekte hinzugefügt</t>
+  </si>
+  <si>
+    <t>Ich habe den Waffen Soundeffekte hinzugefügt. Ich musste ein Skript für die Axt erstellen, da es 3 Axtangriffs-Audiodateien gibt. Es war einfach, hier keine Schwierigkeiten.</t>
+  </si>
+  <si>
+    <t>Feinde Soundeffekte hinzugefügt</t>
+  </si>
+  <si>
+    <t>Ich habe das EnemySound-Skript mit den Audiofunktionen Schrei, Angriff und Tod erstellt. Dann habe ich einige andere Skripte aktualisiert, in denen ich den Kommentar "Audio abspielen" vorbereitet hatte.</t>
+  </si>
+  <si>
+    <t>Bogen und Speer aktualisiert</t>
+  </si>
+  <si>
+    <t>Unsichtbare Wände hinzugefügt</t>
+  </si>
+  <si>
+    <t>Assets hinzugefügt</t>
+  </si>
+  <si>
+    <t>Ich habe die Sound-, Bild- und Schriftarten-Assets zum Feature_Menu Branch hinzugefügt.</t>
+  </si>
+  <si>
+    <t>CI/CD Workflows</t>
+  </si>
+  <si>
+    <t>Das CI funktioniert aber nicht vollständig. Ich habe versucht, es zum Laufen zu bringen, aber es hat nicht funktioniert. Ich habe im Internet gesucht und auch andere Leute gefragt, aber niemand konnte mir helfen. Ich bin wütend, dass ich dadurch so viel Zeit verloren habe.</t>
+  </si>
+  <si>
+    <t>Menu- und Settings Szene erstellen</t>
+  </si>
+  <si>
+    <t>Ich habe einige Skripte für die Menü- und Einstellungsseiten erstellt. Einige waren für mehr Designzwecke (ButtonColor) und andere für Funktionszwecke (MenuBehavior).</t>
+  </si>
+  <si>
+    <t>Menu-Skripts erstellen</t>
+  </si>
+  <si>
+    <t>Settings Sound-Taste funktioniert jetzt</t>
+  </si>
+  <si>
+    <t>Ich habe das Hauptmenü und die Einstellungsszene erstellt. Es war ein bisschen schwierig zu entscheiden, wie das Menü und die Einstellungsseite aussehen sollen, weil ich möchte, dass es gut aussieht. Die Menüseite sieht gut aus und passt zur Überlebensästhetik, und die Einstellungsseite enthält ein "How To Play" -Bild mit der "Musik ein- / ausschalten" Taste.</t>
+  </si>
+  <si>
+    <t>Projekt Abgabe</t>
+  </si>
+  <si>
+    <t>Ich habe unsichtbare Wände hinzugefügt, um sicherzustellen, dass der Spieler nicht vom Rand des Spielfelds fällt.</t>
+  </si>
+  <si>
+    <t>Es gab ein Problem mit der Zoom- / Zielanimation. Sie würden zoomen, schiessen und dann funktionierte es nicht mehr. Ich habe es korrigiert, indem ich einen weiteren Übergang von Angriffsanimation zu Idle-Animation hinzugefügt habe.</t>
+  </si>
+  <si>
+    <t>Heute habe ich daran gearbeitet, den Fehler von gestern zu korrigieren. Zuerst habe ich nicht verstanden, warum es einen Fehler gab. Der Code war in Ordnung und es gab keinen Grund für Unity, ein Problem mit dem Hinzufügen von AudioSources zu GameObjects zu haben. Dann habe ich mir den Fehler noch einmal angesehen. Über der Fehlermeldung stand "Nicht behandelte NULL-Ausnahme empfangen" und ich hatte die Idee, dass mein Player-Prefab das Problem sein könnte. Das Problem ist, dass das von Unity ausgeführte Skript den Pfad / die ID nicht findet, um das Basis-Prefab zum Aktualisieren zu veranlassen. Das Löschen des Fertighauses hat den Fehler erlöscht.</t>
+  </si>
+  <si>
+    <t>Ich habe die Sound-Taste korrigiert. Wenn Sie auf die Sound-Taste klicken, wird der Sound ausgeschaltet. Ich habe auch eine Funktion hinzugefügt, mit der Ihre Entscheidung gespeichert wird. Wenn ich die Musik ausschalte, wird die Musik beim nächsten Start des Spiels ausgeschaltet.</t>
+  </si>
+  <si>
+    <t>Unnötigen Code / Dateien gelöscht</t>
+  </si>
+  <si>
+    <t>Ich habe ein Enemyanimationsskript mit nur einigen Animationsfunktionen für Gehen, Laufen, Angriff und Tod erstellt. Keine Schwierigkeiten. Im Moment konzentriere ich mich darauf, das Projekt rechtzeitig abzuschliessen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich bin etwas nervös, aber ich denke, dass ich insgesamt gute Arbeit gemacht habe. </t>
+  </si>
+  <si>
+    <t>Ich habe eine Szene gelöscht, die ich nie verwendet habe, und Code, von dem ich dachte, ich würde ihn verwenden, aber nicht. Diese kleinen Änderungen, von denen ich weiss, dass sie keinen Fehler verursachen, werden an den Haupt-Branch übertragen. Ich habe nur einige Zahlen geändert.</t>
+  </si>
+  <si>
+    <t>Feinde und der Spieler können Damage verursachen und erkennen</t>
+  </si>
+  <si>
+    <t>Ich habe das PlayerDetectDamage-Skript erstellt. An diesem Punkt können Feinde und der Spieler Damage verursachen und erkennen. Ich habe das mit AttackPoints gemacht. Der AttackPoint des menschlichen Feindes befindet sich auf seinem rechten Arm. Schweine sind auf der Schnauze und der Spieler ist auf der Axt. Zusammen mit Animationen habe ich genau festgelegt, wann die AttackPoints aktiv werden.</t>
+  </si>
+  <si>
+    <t>Angepasster Damage</t>
+  </si>
+  <si>
+    <t>Ich habe den Damage angepasst, weil ich das Gefühl hatte, die Feinde seien zu stark. Diese kleinen Änderungen, von denen ich weiss, dass sie keinen Fehler verursachen, werden an den Haupt-Branch übertragen. Ich habe nur einige Zahlen geändert.</t>
+  </si>
+  <si>
+    <t>Mehr Spawnpunkte hinzugefügt</t>
+  </si>
+  <si>
+    <t>Ich habe mehr Spawnpunkte über das Spielfeld hinzugefügt, um mehr Feinde hinzuzufügen und damit das Spielfeld nicht so leer ist. Diese kleinen Änderungen, von denen ich weiss, dass sie keinen Fehler verursachen, werden an den Haupt-Branch übertragen. Ich habe nur einige Zahlen geändert.</t>
+  </si>
+  <si>
+    <t>Release Final</t>
+  </si>
+  <si>
+    <t>Eine Alpha_1.1 Release erstellt mit Windows, Linux und MacOSX ZIP-Dateien. (GitHub -&gt; Releases)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="dd\.mm\.yyyy;@"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,16 +384,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -232,17 +472,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -250,20 +498,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -272,11 +511,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -560,415 +817,676 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:D72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="13.5546875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="36.5546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="57.44140625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="57.44140625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:4">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="13" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+    </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="28.8">
-      <c r="B6" s="6">
+      <c r="B6" s="16">
         <v>44147</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="28.8">
-      <c r="B7" s="6">
+      <c r="B7" s="16">
         <v>44147</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="72">
-      <c r="B8" s="6">
+      <c r="B8" s="16">
         <v>44147</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="6">
+      <c r="B9" s="16">
         <v>44147</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="6">
+      <c r="B10" s="16">
         <v>44147</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="6">
+      <c r="B11" s="16">
         <v>44147</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="28.8">
-      <c r="B12" s="6">
+      <c r="B12" s="16">
         <v>44154</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="57.6">
-      <c r="B13" s="6">
+      <c r="B13" s="16">
         <v>44154</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="57.6">
-      <c r="B14" s="6">
+      <c r="B14" s="16">
         <v>44154</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="28.8">
-      <c r="B15" s="6">
+      <c r="B15" s="16">
         <v>44155</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="72">
-      <c r="B16" s="6">
+      <c r="B16" s="16">
         <v>44161</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="28.8">
-      <c r="B17" s="6">
+      <c r="B17" s="16">
         <v>44161</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="57.6">
-      <c r="B18" s="6">
+      <c r="B18" s="16">
         <v>44168</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="115.2">
-      <c r="B19" s="6">
+      <c r="B19" s="16">
         <v>44168</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="28.8">
-      <c r="B20" s="6">
+      <c r="B20" s="16">
         <v>44175</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="57.6">
-      <c r="B21" s="6">
+      <c r="B21" s="16">
         <v>44175</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="28.8">
-      <c r="B22" s="6">
+      <c r="B22" s="16">
         <v>44178</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="72">
-      <c r="B23" s="6">
+      <c r="B23" s="16">
         <v>44181</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="5"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="5"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="5"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="5"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28" s="5"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="2:4">
-      <c r="B29" s="5"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="B30" s="5"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="4"/>
-    </row>
-    <row r="31" spans="2:4">
-      <c r="B31" s="5"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32" spans="2:4">
-      <c r="B32" s="5"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="4"/>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="5"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="5"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35" s="5"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36" s="5"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
+    <row r="24" spans="2:4" ht="72">
+      <c r="B24" s="16">
+        <v>44186</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="86.4">
+      <c r="B25" s="16">
+        <v>44188</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="158.4">
+      <c r="B26" s="16">
+        <v>44189</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="28.8">
+      <c r="B27" s="16">
+        <v>44192</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" ht="43.2">
+      <c r="B28" s="16">
+        <v>44193</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" ht="57.6">
+      <c r="B29" s="16">
+        <v>44195</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" ht="100.8">
+      <c r="B30" s="16">
+        <v>44195</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" ht="86.4">
+      <c r="B31" s="16">
+        <v>44195</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" ht="57.6">
+      <c r="B32" s="16">
+        <v>44195</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="43.2">
+      <c r="B33" s="16">
+        <v>44197</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="86.4">
+      <c r="B34" s="16">
+        <v>44197</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="57.6">
+      <c r="B35" s="16">
+        <v>44198</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="28.8">
+      <c r="B36" s="16">
+        <v>44198</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="37" spans="2:4">
-      <c r="B37" s="5"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="2:4">
-      <c r="B38" s="5"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="2:4">
-      <c r="B39" s="9"/>
-    </row>
-    <row r="40" spans="2:4">
-      <c r="B40" s="10"/>
+      <c r="B37" s="16">
+        <v>44198</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" ht="57.6">
+      <c r="B38" s="16">
+        <v>44198</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" ht="72">
+      <c r="B39" s="16">
+        <v>44199</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" ht="100.8">
+      <c r="B40" s="16">
+        <v>44199</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="41" spans="2:4">
-      <c r="B41" s="10"/>
-    </row>
-    <row r="42" spans="2:4">
-      <c r="B42" s="10"/>
-    </row>
-    <row r="43" spans="2:4">
-      <c r="B43" s="10"/>
-    </row>
-    <row r="44" spans="2:4">
-      <c r="B44" s="10"/>
-    </row>
-    <row r="45" spans="2:4">
-      <c r="B45" s="10"/>
-    </row>
-    <row r="46" spans="2:4">
-      <c r="B46" s="10"/>
-    </row>
-    <row r="47" spans="2:4">
-      <c r="B47" s="10"/>
-    </row>
-    <row r="48" spans="2:4">
-      <c r="B48" s="10"/>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" s="10"/>
-    </row>
-    <row r="50" spans="2:2">
-      <c r="B50" s="10"/>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="10"/>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52" s="10"/>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53" s="10"/>
-    </row>
-    <row r="54" spans="2:2">
-      <c r="B54" s="10"/>
-    </row>
-    <row r="55" spans="2:2">
-      <c r="B55" s="10"/>
-    </row>
-    <row r="56" spans="2:2">
-      <c r="B56" s="10"/>
-    </row>
-    <row r="57" spans="2:2">
-      <c r="B57" s="10"/>
-    </row>
-    <row r="58" spans="2:2">
-      <c r="B58" s="10"/>
-    </row>
-    <row r="59" spans="2:2">
-      <c r="B59" s="10"/>
-    </row>
-    <row r="60" spans="2:2">
-      <c r="B60" s="10"/>
-    </row>
-    <row r="61" spans="2:2">
-      <c r="B61" s="10"/>
-    </row>
-    <row r="62" spans="2:2">
-      <c r="B62" s="10"/>
-    </row>
-    <row r="63" spans="2:2">
-      <c r="B63" s="10"/>
-    </row>
-    <row r="64" spans="2:2">
-      <c r="B64" s="10"/>
+      <c r="B41" s="16">
+        <v>44199</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" ht="86.4">
+      <c r="B42" s="16">
+        <v>44200</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" ht="43.2">
+      <c r="B43" s="16">
+        <v>44200</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" ht="72">
+      <c r="B44" s="16">
+        <v>44200</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" ht="28.8">
+      <c r="B45" s="16">
+        <v>44200</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" ht="57.6">
+      <c r="B46" s="16">
+        <v>44201</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" ht="43.2">
+      <c r="B47" s="16">
+        <v>44201</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" ht="57.6">
+      <c r="B48" s="16">
+        <v>44201</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" ht="57.6">
+      <c r="B49" s="16">
+        <v>44201</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" ht="72">
+      <c r="B50" s="16">
+        <v>44201</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" ht="28.8">
+      <c r="B51" s="16">
+        <v>44202</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" ht="28.8">
+      <c r="B52" s="16">
+        <v>44202</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" ht="86.4">
+      <c r="B53" s="16">
+        <v>44202</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" ht="43.2">
+      <c r="B54" s="16">
+        <v>44202</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" ht="72">
+      <c r="B55" s="16">
+        <v>44204</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" ht="72">
+      <c r="B56" s="16">
+        <v>44204</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" ht="72">
+      <c r="B57" s="16">
+        <v>44204</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" ht="28.8">
+      <c r="B58" s="16">
+        <v>44204</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" ht="28.8">
+      <c r="B59" s="16">
+        <v>44204</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4">
+      <c r="B60" s="6"/>
+    </row>
+    <row r="61" spans="2:4">
+      <c r="B61" s="6"/>
+    </row>
+    <row r="63" spans="2:4">
+      <c r="B63" s="6"/>
+    </row>
+    <row r="64" spans="2:4">
+      <c r="B64" s="6"/>
     </row>
     <row r="65" spans="2:2">
-      <c r="B65" s="10"/>
+      <c r="B65" s="6"/>
     </row>
     <row r="66" spans="2:2">
-      <c r="B66" s="10"/>
+      <c r="B66" s="6"/>
     </row>
     <row r="67" spans="2:2">
-      <c r="B67" s="10"/>
+      <c r="B67" s="6"/>
     </row>
     <row r="68" spans="2:2">
-      <c r="B68" s="10"/>
+      <c r="B68" s="6"/>
     </row>
     <row r="69" spans="2:2">
-      <c r="B69" s="10"/>
+      <c r="B69" s="6"/>
     </row>
     <row r="70" spans="2:2">
-      <c r="B70" s="10"/>
+      <c r="B70" s="6"/>
     </row>
     <row r="71" spans="2:2">
-      <c r="B71" s="10"/>
+      <c r="B71" s="6"/>
     </row>
     <row r="72" spans="2:2">
-      <c r="B72" s="10"/>
+      <c r="B72" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
